--- a/data/trans_dic/P16A97-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,06</t>
+          <t>2,27; 9,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,71; 22,78</t>
+          <t>10,44; 22,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,66; 21,62</t>
+          <t>9,14; 21,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 34,43</t>
+          <t>18,13; 34,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,54</t>
+          <t>6,0; 12,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 25,77</t>
+          <t>15,68; 25,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,48</t>
+          <t>3,08; 8,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 21,21</t>
+          <t>12,21; 20,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 16,21</t>
+          <t>8,1; 16,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 13,12</t>
+          <t>5,82; 13,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,8; 38,16</t>
+          <t>25,6; 38,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,57; 25,9</t>
+          <t>14,38; 25,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,19</t>
+          <t>4,95; 9,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 26,95</t>
+          <t>19,03; 26,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,59</t>
+          <t>11,89; 18,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,02</t>
+          <t>3,0; 9,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,57; 26,42</t>
+          <t>14,42; 26,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,42</t>
+          <t>10,36; 20,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 21,52</t>
+          <t>9,81; 21,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,46; 49,49</t>
+          <t>32,54; 49,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,98; 27,76</t>
+          <t>13,93; 27,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,31</t>
+          <t>6,56; 12,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,96; 34,0</t>
+          <t>24,37; 34,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 21,98</t>
+          <t>13,63; 21,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,3</t>
+          <t>2,06; 7,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 25,1</t>
+          <t>16,56; 25,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 27,33</t>
+          <t>15,25; 26,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 19,43</t>
+          <t>9,3; 18,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,28; 50,88</t>
+          <t>38,77; 51,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,82; 49,22</t>
+          <t>33,65; 49,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 11,33</t>
+          <t>6,1; 11,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,44; 34,82</t>
+          <t>27,47; 34,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,03; 35,95</t>
+          <t>25,81; 36,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 11,04</t>
+          <t>2,96; 10,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 23,75</t>
+          <t>10,35; 24,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 13,2</t>
+          <t>3,74; 13,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,08; 28,63</t>
+          <t>11,24; 26,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,08; 55,28</t>
+          <t>31,43; 53,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 32,68</t>
+          <t>16,4; 32,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 17,0</t>
+          <t>8,04; 17,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,41; 33,76</t>
+          <t>20,5; 33,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,84; 20,25</t>
+          <t>10,4; 19,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,95</t>
+          <t>2,25; 8,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,72; 32,4</t>
+          <t>18,37; 32,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 24,68</t>
+          <t>12,45; 23,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 17,46</t>
+          <t>4,82; 16,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,65; 53,27</t>
+          <t>35,69; 53,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,77; 39,63</t>
+          <t>23,91; 39,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 10,11</t>
+          <t>3,98; 9,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,88; 38,53</t>
+          <t>26,78; 39,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,1; 29,34</t>
+          <t>19,78; 29,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,97</t>
+          <t>1,24; 4,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,1; 23,34</t>
+          <t>15,08; 23,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 10,24</t>
+          <t>4,13; 9,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,35</t>
+          <t>4,04; 9,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,35; 44,42</t>
+          <t>34,01; 44,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,93; 22,28</t>
+          <t>14,34; 22,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,11</t>
+          <t>3,03; 6,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,36; 32,14</t>
+          <t>25,12; 32,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,67</t>
+          <t>9,71; 14,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,93</t>
+          <t>2,22; 5,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,14; 15,47</t>
+          <t>9,73; 16,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,33</t>
+          <t>10,11; 16,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,73</t>
+          <t>4,29; 9,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,97; 26,32</t>
+          <t>17,77; 26,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,65; 26,78</t>
+          <t>17,75; 26,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,09</t>
+          <t>3,62; 6,8</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,18; 19,17</t>
+          <t>14,17; 19,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,63; 19,97</t>
+          <t>14,48; 19,76</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,3</t>
+          <t>3,5; 5,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,9; 19,36</t>
+          <t>15,84; 19,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,31</t>
+          <t>11,35; 14,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,76; 11,63</t>
+          <t>8,75; 11,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,79; 37,76</t>
+          <t>32,55; 37,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,44; 25,97</t>
+          <t>21,81; 26,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,86</t>
+          <t>5,99; 7,63</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,79</t>
+          <t>23,91; 26,85</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 19,15</t>
+          <t>16,56; 19,24</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P16A97-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A97-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,73</t>
+          <t>2,42; 9,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 22,33</t>
+          <t>10,49; 22,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 21,6</t>
+          <t>8,85; 21,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 34,34</t>
+          <t>18,51; 33,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 12,56</t>
+          <t>5,81; 12,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,44</t>
+          <t>15,69; 25,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 8,29</t>
+          <t>2,88; 7,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,21; 20,9</t>
+          <t>11,72; 20,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,19</t>
+          <t>8,39; 16,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,16</t>
+          <t>6,0; 13,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,6; 38,69</t>
+          <t>25,68; 38,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,38; 25,83</t>
+          <t>14,69; 25,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,29</t>
+          <t>4,68; 9,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 26,24</t>
+          <t>19,01; 26,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,37</t>
+          <t>12,31; 18,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,03</t>
+          <t>3,0; 8,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 26,27</t>
+          <t>14,12; 26,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 20,71</t>
+          <t>10,48; 20,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,81; 21,25</t>
+          <t>10,27; 20,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,54; 49,85</t>
+          <t>32,2; 49,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 27,18</t>
+          <t>14,54; 28,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 12,64</t>
+          <t>6,64; 12,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,37; 34,54</t>
+          <t>23,84; 33,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,63; 21,73</t>
+          <t>13,61; 21,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,62</t>
+          <t>2,15; 7,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,56; 25,38</t>
+          <t>17,06; 25,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,25; 26,86</t>
+          <t>15,53; 27,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 18,4</t>
+          <t>9,19; 18,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,77; 51,31</t>
+          <t>39,02; 50,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,65; 49,13</t>
+          <t>33,74; 49,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,36</t>
+          <t>6,01; 11,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 34,99</t>
+          <t>27,92; 35,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 36,0</t>
+          <t>25,81; 36,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 10,97</t>
+          <t>2,9; 11,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,35; 24,25</t>
+          <t>10,16; 24,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,46</t>
+          <t>4,15; 12,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,24; 26,86</t>
+          <t>12,11; 28,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,43; 53,91</t>
+          <t>30,77; 53,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,4; 32,83</t>
+          <t>16,26; 32,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 17,39</t>
+          <t>7,97; 16,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 33,22</t>
+          <t>20,22; 32,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,4; 19,64</t>
+          <t>10,65; 19,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,78</t>
+          <t>1,88; 8,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 32,36</t>
+          <t>18,11; 32,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 23,9</t>
+          <t>12,65; 24,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 16,53</t>
+          <t>4,81; 16,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,69; 53,99</t>
+          <t>35,31; 53,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,91; 39,57</t>
+          <t>23,56; 39,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,76</t>
+          <t>3,99; 10,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,78; 39,09</t>
+          <t>27,01; 39,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,78; 29,22</t>
+          <t>19,3; 29,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,88</t>
+          <t>1,27; 5,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 23,62</t>
+          <t>14,8; 23,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,79</t>
+          <t>4,03; 9,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,45</t>
+          <t>4,05; 9,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,01; 44,6</t>
+          <t>33,99; 44,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,34; 22,72</t>
+          <t>14,12; 22,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,07</t>
+          <t>3,03; 5,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,12; 32,07</t>
+          <t>25,22; 32,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,78</t>
+          <t>9,9; 15,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,85</t>
+          <t>2,28; 5,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,03</t>
+          <t>9,62; 15,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,11; 16,94</t>
+          <t>10,22; 16,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,68</t>
+          <t>4,3; 9,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,77; 26,12</t>
+          <t>17,99; 26,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,94</t>
+          <t>17,87; 26,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,8</t>
+          <t>3,76; 6,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,17; 19,35</t>
+          <t>14,25; 19,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,48; 19,76</t>
+          <t>14,57; 19,99</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,37</t>
+          <t>3,44; 5,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,84; 19,32</t>
+          <t>16,02; 19,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,35; 14,43</t>
+          <t>11,31; 14,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,75; 11,6</t>
+          <t>8,68; 11,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,55; 37,5</t>
+          <t>32,88; 37,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,12</t>
+          <t>21,75; 26,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,99; 7,63</t>
+          <t>6,07; 7,62</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,91; 26,85</t>
+          <t>24,03; 26,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 19,24</t>
+          <t>16,58; 19,37</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
